--- a/biology/Botanique/Denis_et_Eugène_Bühler/Denis_et_Eugène_Bühler.xlsx
+++ b/biology/Botanique/Denis_et_Eugène_Bühler/Denis_et_Eugène_Bühler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denis_et_Eug%C3%A8ne_B%C3%BChler</t>
+          <t>Denis_et_Eugène_Bühler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Bühler, né le 22 avril 1811 à Lahr (Allemagne) et mort en 1890 à Lausanne (Suisse) et Eugène Bühler, né le 4 décembre 1822 à Clamart (Hauts-de-Seine) et mort le 12 février 1907 à Paris[1], sont des architectes-paysagistes français, issus d’une famille protestante d'origine suisse. Peu connus aujourd'hui, ils jouirent d’une gloire considérable au XIXe siècle et faisaient partie de l'élite de la profession.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Bühler, né le 22 avril 1811 à Lahr (Allemagne) et mort en 1890 à Lausanne (Suisse) et Eugène Bühler, né le 4 décembre 1822 à Clamart (Hauts-de-Seine) et mort le 12 février 1907 à Paris, sont des architectes-paysagistes français, issus d’une famille protestante d'origine suisse. Peu connus aujourd'hui, ils jouirent d’une gloire considérable au XIXe siècle et faisaient partie de l'élite de la profession.
 Les frères Bühler affectionnaient les paysages exotiques et le jardin paysager.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Denis_et_Eug%C3%A8ne_B%C3%BChler</t>
+          <t>Denis_et_Eugène_Bühler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est par obligation familiale, à la mort de son père, que Denis reprend l'activité de ce dernier en exerçant la profession de pépiniériste. Son frère Eugène étudie l’architecture paysagère à l'École royale d’horticulture de Versailles et les Bühler s’installent à Paris, où ils se lancent ensemble dans la réalisation de parcs et jardins.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denis_et_Eug%C3%A8ne_B%C3%BChler</t>
+          <t>Denis_et_Eugène_Bühler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Liste non exhaustive, classée par années croissantes de réalisations).
-En France
-On trouve trace de leurs premiers chantiers en Bretagne. Par la suite, ils créent ou remanient nombre de parcs en France :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Liste non exhaustive, classée par années croissantes de réalisations).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denis_et_Eugène_Bühler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_et_Eug%C3%A8ne_B%C3%BChler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On trouve trace de leurs premiers chantiers en Bretagne. Par la suite, ils créent ou remanient nombre de parcs en France :
 1842 : Le parc du Château de Kernévez à Saint-Pol-de-Léon (Finistère).
 1850 : Le parc du Château du Pérennou à Plomelin (Finistère)[R 1], sur les bords de l'Odet.
 1856 :
@@ -592,9 +643,43 @@
 Les parcs de plusieurs châteaux pinardiers dans le Biterrois dont les châteaux de Libouriac et de Raissac à Béziers (Hérault) ;
 Le parc du Domaine de Palajanel sur la commune de Palaja (Aude) ;
 Les jardins du Château de Valmirande sur la commune de Montréjeau (Haute-Garonne).
-le parc du château du Faÿ sur la commune d'Andrésy dans les Yvelines.
-En Belgique
-s.d. : Le parc du Château de Dave sur la commune de Namur en Belgique.</t>
+le parc du château du Faÿ sur la commune d'Andrésy dans les Yvelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_et_Eugène_Bühler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_et_Eug%C3%A8ne_B%C3%BChler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s.d. : Le parc du Château de Dave sur la commune de Namur en Belgique.</t>
         </is>
       </c>
     </row>
